--- a/Assets/ConfigData/Character.xlsx
+++ b/Assets/ConfigData/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -34,7 +34,7 @@
     <t>key</t>
   </si>
   <si>
-    <t>over</t>
+    <t>Over</t>
   </si>
   <si>
     <t>铃木</t>
@@ -46,7 +46,7 @@
     <t>欧尼酱</t>
   </si>
   <si>
-    <t>my</t>
+    <t>My</t>
   </si>
   <si>
     <t>艾黎</t>
@@ -58,13 +58,16 @@
     <t>铃木前辈</t>
   </si>
   <si>
+    <t>Ws</t>
+  </si>
+  <si>
     <t>彗星</t>
   </si>
   <si>
     <t>铃木君</t>
   </si>
   <si>
-    <t>tt</t>
+    <t>Tt</t>
   </si>
   <si>
     <t>佐藤</t>
@@ -76,7 +79,7 @@
     <t>随从</t>
   </si>
   <si>
-    <t>liya</t>
+    <t>Liya</t>
   </si>
   <si>
     <t>青井</t>
@@ -85,7 +88,10 @@
     <t>梨浅</t>
   </si>
   <si>
-    <t>mt</t>
+    <t>跟班</t>
+  </si>
+  <si>
+    <t>Mt</t>
   </si>
   <si>
     <t>小林</t>
@@ -94,13 +100,16 @@
     <t>真理子</t>
   </si>
   <si>
-    <t>fm</t>
+    <t>Fm</t>
   </si>
   <si>
     <t>藤原</t>
   </si>
   <si>
     <t>桃音</t>
+  </si>
+  <si>
+    <t>铃木酱</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +135,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -594,148 +596,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1084,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1090,7 +1092,8 @@
     <col min="1" max="1" width="8.88888888888889" style="3"/>
     <col min="2" max="3" width="12.5555555555556" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.1111111111111" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="3"/>
+    <col min="5" max="5" width="23.2222222222222" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.4" spans="1:4">
@@ -1159,67 +1162,73 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
-        <v>53</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
